--- a/_data.xlsx
+++ b/_data.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FFCD332-9469-4A18-88CE-18058D546385}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C203FC23-C085-4A41-B5A6-F8CAF75F2881}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="129">
   <si>
     <t>Industrial Production Index</t>
   </si>
@@ -97,9 +97,6 @@
     <t>???</t>
   </si>
   <si>
-    <t>W</t>
-  </si>
-  <si>
     <t>DGS10</t>
   </si>
   <si>
@@ -151,9 +148,6 @@
     <t>NONREVSL</t>
   </si>
   <si>
-    <t>Moody's Seasoned Aaa Corporate Bond Yield</t>
-  </si>
-  <si>
     <t>H.10 Foreign Exchange Rates</t>
   </si>
   <si>
@@ -169,12 +163,6 @@
     <t>DCOILWTICO</t>
   </si>
   <si>
-    <t>NASDAQ Composite Index</t>
-  </si>
-  <si>
-    <t>NASDAQCOM</t>
-  </si>
-  <si>
     <t>UMCSENT</t>
   </si>
   <si>
@@ -199,12 +187,6 @@
     <t>CPILFESL</t>
   </si>
   <si>
-    <t>U.S. Employment and Training Administration</t>
-  </si>
-  <si>
-    <t>ICSA</t>
-  </si>
-  <si>
     <t>SP500</t>
   </si>
   <si>
@@ -259,9 +241,6 @@
     <t>interest rates</t>
   </si>
   <si>
-    <t>spreads</t>
-  </si>
-  <si>
     <t>exchange rates</t>
   </si>
   <si>
@@ -274,15 +253,6 @@
     <t>does not change often (see graph)</t>
   </si>
   <si>
-    <t>Quandl</t>
-  </si>
-  <si>
-    <t>ISM</t>
-  </si>
-  <si>
-    <t>new orders index …</t>
-  </si>
-  <si>
     <t>credit</t>
   </si>
   <si>
@@ -361,9 +331,6 @@
     <t>…</t>
   </si>
   <si>
-    <t xml:space="preserve">Unemployment Insurance Weekly Claims Report </t>
-  </si>
-  <si>
     <t>source_3</t>
   </si>
   <si>
@@ -397,9 +364,6 @@
     <t>Moody's Daily Corporate Bond Yield Averages</t>
   </si>
   <si>
-    <t>DAAA</t>
-  </si>
-  <si>
     <t>Moody's Seasoned Baa Corporate Bond Yield</t>
   </si>
   <si>
@@ -412,18 +376,6 @@
     <t xml:space="preserve">H.15 Selected Interest Rates </t>
   </si>
   <si>
-    <t>NASDAQ OMX Group</t>
-  </si>
-  <si>
-    <t>NASDAQ</t>
-  </si>
-  <si>
-    <t>Wilshire 5000 Total Market Full Cap Index</t>
-  </si>
-  <si>
-    <t>WILL5000INDFC</t>
-  </si>
-  <si>
     <t>transformation</t>
   </si>
   <si>
@@ -431,6 +383,30 @@
   </si>
   <si>
     <t>?</t>
+  </si>
+  <si>
+    <t>Average Hourly Earnings: Total Private Industries</t>
+  </si>
+  <si>
+    <t>AHETPI</t>
+  </si>
+  <si>
+    <t>Average Weekly Hours of Production and Nonsupervisory Employees: Manufacturing</t>
+  </si>
+  <si>
+    <t>AWHMAN</t>
+  </si>
+  <si>
+    <t>3M - EFF</t>
+  </si>
+  <si>
+    <t>10Y - EFF</t>
+  </si>
+  <si>
+    <t>Baa - EFF</t>
+  </si>
+  <si>
+    <t>10Y - 3M</t>
   </si>
 </sst>
 </file>
@@ -773,18 +749,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98DEB85B-EA0C-4688-9031-BAF313B96D41}">
-  <dimension ref="A1:N63"/>
+  <dimension ref="A1:N58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E2" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.21875" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.5546875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" customWidth="1"/>
-    <col min="6" max="6" width="55" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" customWidth="1"/>
+    <col min="6" max="6" width="97" customWidth="1"/>
     <col min="7" max="7" width="11.5546875" style="4"/>
     <col min="8" max="8" width="27.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.77734375" style="4" customWidth="1"/>
@@ -796,61 +772,61 @@
   <sheetData>
     <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="L1" s="2" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="E3" t="s">
         <v>2</v>
@@ -871,30 +847,30 @@
         <v>9888</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="M3" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="E4" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>1</v>
@@ -910,21 +886,21 @@
       </c>
       <c r="L4" s="6"/>
       <c r="N4" s="4" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="E5" t="s">
         <v>4</v>
@@ -945,27 +921,27 @@
         <v>35384</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>1</v>
@@ -981,74 +957,106 @@
       </c>
       <c r="L6" s="6"/>
       <c r="N6" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="F7" s="3"/>
-      <c r="J7" s="1"/>
+      <c r="F7" s="5"/>
+      <c r="J7" s="6"/>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="E8" t="s">
-        <v>60</v>
+        <v>101</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>113</v>
+        <v>5</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="6">
-        <v>24479</v>
+      <c r="J8" s="1">
+        <v>17533</v>
       </c>
       <c r="K8" s="6">
-        <v>39961</v>
-      </c>
-      <c r="L8" s="6"/>
-    </row>
-    <row r="9" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="F9" s="5"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
+        <v>21990</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="1">
+        <v>14246</v>
+      </c>
+      <c r="K9" s="6">
+        <v>20215</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="10" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>6</v>
+        <v>101</v>
+      </c>
+      <c r="E10" t="s">
+        <v>52</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>1</v>
@@ -1060,33 +1068,30 @@
         <v>17533</v>
       </c>
       <c r="K10" s="6">
-        <v>21990</v>
+        <v>35468</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="E11" t="s">
-        <v>54</v>
+        <v>101</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>1</v>
@@ -1095,33 +1100,36 @@
         <v>10</v>
       </c>
       <c r="J11" s="1">
-        <v>14246</v>
+        <v>23377</v>
       </c>
       <c r="K11" s="6">
-        <v>20215</v>
+        <v>35468</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="E12" t="s">
-        <v>56</v>
+        <v>124</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>55</v>
+        <v>123</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>1</v>
@@ -1130,93 +1138,110 @@
         <v>10</v>
       </c>
       <c r="J12" s="1">
-        <v>17533</v>
+        <v>11689</v>
       </c>
       <c r="K12" s="6">
-        <v>35468</v>
+        <v>22588</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>136</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
     </row>
     <row r="13" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>1</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="J13" s="1">
         <v>23377</v>
       </c>
       <c r="K13" s="6">
-        <v>35468</v>
+        <v>36378</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="E14" t="s">
-        <v>112</v>
-      </c>
-      <c r="F14" t="s">
-        <v>112</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" s="1">
+        <v>17168</v>
+      </c>
+      <c r="K15" s="6">
+        <v>26501</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="M15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>1</v>
@@ -1225,116 +1250,136 @@
         <v>10</v>
       </c>
       <c r="J16" s="1">
-        <v>17168</v>
+        <v>20821</v>
       </c>
       <c r="K16" s="6">
-        <v>26501</v>
-      </c>
-      <c r="L16" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="M16" t="s">
-        <v>90</v>
-      </c>
+        <v>35411</v>
+      </c>
+      <c r="L16" s="6"/>
     </row>
     <row r="17" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="E17" t="s">
-        <v>58</v>
+        <v>105</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H17" s="4" t="s">
-        <v>10</v>
+      <c r="H17" t="s">
+        <v>15</v>
       </c>
       <c r="J17" s="1">
-        <v>20821</v>
+        <v>4750</v>
       </c>
       <c r="K17" s="6">
-        <v>35411</v>
-      </c>
-      <c r="L17" s="6"/>
+        <v>35410</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="18" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
     </row>
     <row r="19" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>109</v>
+        <v>48</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>16</v>
+        <v>93</v>
+      </c>
+      <c r="E19" t="s">
+        <v>92</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J19" s="1">
-        <v>4750</v>
+        <v>17533</v>
       </c>
       <c r="K19" s="6">
-        <v>35410</v>
-      </c>
-      <c r="L19" s="6" t="s">
+        <v>35503</v>
+      </c>
+      <c r="L19" s="6"/>
+    </row>
+    <row r="20" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E20" t="s">
+        <v>91</v>
+      </c>
+      <c r="F20" s="5" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
+      <c r="G20" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H20" t="s">
+        <v>10</v>
+      </c>
+      <c r="J20" s="1">
+        <v>29556</v>
+      </c>
+      <c r="K20" s="6">
+        <v>35384</v>
+      </c>
+      <c r="L20" s="6"/>
     </row>
     <row r="21" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="E21" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>1</v>
@@ -1343,31 +1388,34 @@
         <v>10</v>
       </c>
       <c r="J21" s="1">
-        <v>17533</v>
+        <v>33604</v>
       </c>
       <c r="K21" s="6">
-        <v>35503</v>
+        <v>41438</v>
       </c>
       <c r="L21" s="6"/>
+      <c r="N21" s="4" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="22" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="E22" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>1</v>
@@ -1376,146 +1424,116 @@
         <v>10</v>
       </c>
       <c r="J22" s="1">
-        <v>29556</v>
+        <v>33604</v>
       </c>
       <c r="K22" s="6">
-        <v>35384</v>
+        <v>41438</v>
       </c>
       <c r="L22" s="6"/>
+      <c r="N22" s="4" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="23" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B23" s="4" t="s">
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E23" t="s">
-        <v>107</v>
-      </c>
-      <c r="F23" s="5" t="s">
+      <c r="B24" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="G23" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H23" t="s">
-        <v>10</v>
-      </c>
-      <c r="J23" s="1">
-        <v>33604</v>
-      </c>
-      <c r="K23" s="6">
-        <v>41438</v>
-      </c>
-      <c r="L23" s="6"/>
-      <c r="N23" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B24" s="4" t="s">
+      <c r="E24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H24" t="s">
+        <v>8</v>
+      </c>
+      <c r="J24" s="1">
+        <v>21551</v>
+      </c>
+      <c r="K24" s="6">
+        <v>22118</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E24" t="s">
-        <v>106</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H24" t="s">
-        <v>10</v>
-      </c>
-      <c r="J24" s="1">
-        <v>33604</v>
-      </c>
-      <c r="K24" s="6">
-        <v>41438</v>
-      </c>
-      <c r="L24" s="6"/>
-      <c r="N24" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="E26" t="s">
-        <v>18</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H26" t="s">
+      <c r="B25" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H25" t="s">
         <v>8</v>
       </c>
-      <c r="J26" s="1">
-        <v>21551</v>
-      </c>
-      <c r="K26" s="6">
-        <v>22118</v>
-      </c>
-      <c r="L26" s="4" t="s">
-        <v>90</v>
-      </c>
+      <c r="J25" s="1">
+        <v>21916</v>
+      </c>
+      <c r="K25" s="6">
+        <v>36373</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="7"/>
+      <c r="F26" s="5"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>98</v>
+        <v>64</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="E27" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>1</v>
@@ -1524,225 +1542,244 @@
         <v>8</v>
       </c>
       <c r="J27" s="1">
-        <v>21916</v>
+        <v>21551</v>
       </c>
       <c r="K27" s="6">
-        <v>36373</v>
-      </c>
-      <c r="L27" s="4" t="s">
-        <v>90</v>
+        <v>35087</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="M27" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="7"/>
-      <c r="F28" s="5"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="A28" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="F29" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H29" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="1">
-        <v>21551</v>
-      </c>
-      <c r="K29" s="6">
-        <v>35087</v>
-      </c>
-      <c r="L29" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="M29" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="J28" s="1"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+    </row>
+    <row r="29" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="J30" s="1"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-    </row>
-    <row r="31" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-    </row>
+        <v>64</v>
+      </c>
+      <c r="E30" t="s">
+        <v>47</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E32" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>77</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E34" t="s">
-        <v>72</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="36" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
+        <v>64</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="37" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+        <v>78</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N38" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
     <row r="39" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>1</v>
       </c>
+      <c r="N39" s="4" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="40" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="N40" s="4" t="s">
-        <v>91</v>
-      </c>
+      <c r="F40" s="5"/>
     </row>
     <row r="41" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>88</v>
+        <v>64</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>117</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>1</v>
+        <v>21</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M41" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="F42" s="5"/>
+      <c r="A42" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="43" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>30</v>
@@ -1754,30 +1791,27 @@
         <v>15</v>
       </c>
       <c r="M43" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="N43" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>28</v>
+        <v>116</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>27</v>
+        <v>114</v>
       </c>
       <c r="G44" s="4" t="s">
         <v>21</v>
@@ -1785,453 +1819,280 @@
       <c r="H44" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="J44" s="6">
+        <v>31414</v>
+      </c>
+      <c r="K44" s="6">
+        <v>42816</v>
+      </c>
+      <c r="L44" s="6"/>
+      <c r="N44" s="4" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="45" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>26</v>
-      </c>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
       <c r="F45" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G45" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+    </row>
+    <row r="46" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="F46" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
+    </row>
+    <row r="47" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="F47" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
+    </row>
+    <row r="48" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="F48" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6"/>
+    </row>
+    <row r="49" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="50" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G50" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H45" s="4" t="s">
+      <c r="H50" t="s">
         <v>15</v>
       </c>
-      <c r="M45" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H48" t="s">
-        <v>15</v>
-      </c>
-      <c r="J48" s="6">
-        <v>30319</v>
-      </c>
-      <c r="K48" s="6">
-        <v>42816</v>
-      </c>
-      <c r="L48" s="6"/>
-      <c r="N48" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="G49" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H49" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J49" s="6">
-        <v>31414</v>
-      </c>
-      <c r="K49" s="6">
-        <v>42816</v>
-      </c>
-      <c r="L49" s="6"/>
-      <c r="N49" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+      <c r="J50" s="6">
+        <v>26666</v>
+      </c>
+      <c r="K50" s="6">
+        <v>41716</v>
+      </c>
+      <c r="L50" s="6"/>
+      <c r="N50" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
     <row r="51" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>44</v>
+        <v>64</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>33</v>
+        <v>55</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="G51" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H51" t="s">
+      <c r="H51" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J51" s="6">
-        <v>26666</v>
-      </c>
-      <c r="K51" s="6">
-        <v>41716</v>
-      </c>
-      <c r="L51" s="6"/>
-      <c r="N51" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="F52" s="5"/>
-      <c r="J52" s="6"/>
-      <c r="K52" s="6"/>
+      <c r="M51" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H52" t="s">
+        <v>15</v>
+      </c>
+      <c r="J52" s="6">
+        <v>32875</v>
+      </c>
+      <c r="K52" s="6">
+        <v>41746</v>
+      </c>
       <c r="L52" s="6"/>
     </row>
-    <row r="53" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="E53" t="s">
-        <v>50</v>
+        <v>112</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G53" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H53" s="4" t="s">
+      <c r="H53" t="s">
         <v>15</v>
       </c>
       <c r="J53" s="6">
-        <v>25969</v>
+        <v>31414</v>
       </c>
       <c r="K53" s="6">
-        <v>41778</v>
+        <v>40639</v>
       </c>
       <c r="L53" s="6"/>
     </row>
-    <row r="54" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H54" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="M54" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E55" t="s">
-        <v>133</v>
-      </c>
-      <c r="F55" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H55" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A56" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F56" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G56" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H56" t="s">
-        <v>15</v>
-      </c>
-      <c r="J56" s="6">
-        <v>32875</v>
-      </c>
-      <c r="K56" s="6">
-        <v>41746</v>
-      </c>
-      <c r="L56" s="6"/>
-    </row>
-    <row r="57" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="F57" s="5"/>
-      <c r="J57" s="6"/>
-      <c r="K57" s="6"/>
-      <c r="L57" s="6"/>
+    <row r="54" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E55" s="4"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A58" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F58" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H58" t="s">
-        <v>15</v>
-      </c>
-      <c r="J58" s="6">
-        <v>31414</v>
-      </c>
-      <c r="K58" s="6">
-        <v>40639</v>
-      </c>
-      <c r="L58" s="6"/>
-    </row>
-    <row r="59" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A60" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B60" t="s">
-        <v>84</v>
-      </c>
-      <c r="D60" t="s">
-        <v>85</v>
-      </c>
-      <c r="E60" s="4"/>
-      <c r="F60" t="s">
-        <v>86</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="E63" s="4"/>
-      <c r="G63"/>
-      <c r="K63" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="G58"/>
+      <c r="K58" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F3" r:id="rId1" display="https://alfred.stlouisfed.org/series?seid=INDPRO" xr:uid="{63A57029-F58A-4D2F-AD5A-42C2A16B7DCE}"/>
     <hyperlink ref="F5" r:id="rId2" display="https://alfred.stlouisfed.org/series?seid=TCU" xr:uid="{D089DEAB-728F-4C7D-BBB4-433C552FFD17}"/>
     <hyperlink ref="F6" r:id="rId3" display="https://alfred.stlouisfed.org/series?seid=MCUMFN" xr:uid="{8CBA842C-F1F9-4ACB-9FE0-0F5F3D8EF701}"/>
-    <hyperlink ref="F10" r:id="rId4" display="https://alfred.stlouisfed.org/series?seid=UNRATE" xr:uid="{A4545E9D-F4A4-4050-B867-8228DB306B54}"/>
-    <hyperlink ref="F29" r:id="rId5" display="https://alfred.stlouisfed.org/series?seid=PCEC96" xr:uid="{2E4D66D5-F644-48BD-AFD5-F0FDC1B81895}"/>
-    <hyperlink ref="F16" r:id="rId6" display="https://alfred.stlouisfed.org/series?seid=CPIAUCSL" xr:uid="{08E046C6-7718-4B83-87C6-95F709D86704}"/>
-    <hyperlink ref="F19" r:id="rId7" display="https://alfred.stlouisfed.org/series?seid=PPIACO" xr:uid="{30D35E82-98BE-47C2-8671-FA77D859AA93}"/>
-    <hyperlink ref="F26" r:id="rId8" display="https://alfred.stlouisfed.org/series?seid=HOUST" xr:uid="{325BDEDD-5F69-458D-873C-B3F3887C54FB}"/>
-    <hyperlink ref="F27" r:id="rId9" display="https://alfred.stlouisfed.org/series?seid=PERMIT" xr:uid="{C9CDFAD2-F560-4EA8-8171-D799A4C16045}"/>
-    <hyperlink ref="F51" r:id="rId10" display="https://alfred.stlouisfed.org/series?seid=DTWEXM" xr:uid="{11177C43-0E89-4C34-84C8-AA92C7DBCA40}"/>
-    <hyperlink ref="F56" r:id="rId11" display="https://alfred.stlouisfed.org/series?seid=VIXCLS" xr:uid="{1120FD1F-70DF-403B-9AB2-FAB2BE94C900}"/>
-    <hyperlink ref="F45" r:id="rId12" display="https://alfred.stlouisfed.org/series?seid=DGS10" xr:uid="{A836080F-B477-46F6-A470-E852510D2ADE}"/>
-    <hyperlink ref="F44" r:id="rId13" display="https://alfred.stlouisfed.org/series?seid=DTB3" xr:uid="{D18A8152-92EC-4F5F-8F2D-DD70314E64B7}"/>
-    <hyperlink ref="F39" r:id="rId14" display="https://alfred.stlouisfed.org/series?seid=TOTALSL" xr:uid="{97103A44-2040-4B1E-B2AA-870B7C9BDA3B}"/>
-    <hyperlink ref="F40" r:id="rId15" display="https://alfred.stlouisfed.org/series?seid=REVOLSL" xr:uid="{01734E95-329B-440F-9562-92AA1A30652C}"/>
-    <hyperlink ref="F41" r:id="rId16" display="https://alfred.stlouisfed.org/series?seid=NONREVSL" xr:uid="{34445C73-0ED3-4772-BA51-DABDDE08E613}"/>
-    <hyperlink ref="F48" r:id="rId17" display="https://alfred.stlouisfed.org/series?seid=WAAA" xr:uid="{4647F951-F71E-4FED-B8BB-5442C07D9A90}"/>
-    <hyperlink ref="F43" r:id="rId18" display="https://alfred.stlouisfed.org/series?seid=DFF" xr:uid="{111E22EF-A095-47D5-901E-B0B29C45001D}"/>
-    <hyperlink ref="F11" r:id="rId19" display="https://alfred.stlouisfed.org/series?seid=PAYEMS" xr:uid="{3590F40F-1832-482B-A156-DD3057E4E2B1}"/>
-    <hyperlink ref="F58" r:id="rId20" display="https://alfred.stlouisfed.org/series?seid=DCOILWTICO" xr:uid="{08A9E151-C9C2-4C84-9371-155AEBCEE474}"/>
-    <hyperlink ref="D3" r:id="rId21" display="https://alfred.stlouisfed.org/release?rid=13&amp;soid=1" xr:uid="{B50F50A7-3F57-42E1-994D-FD311398DB30}"/>
-    <hyperlink ref="D5:D6" r:id="rId22" display="https://alfred.stlouisfed.org/release?rid=13&amp;soid=1" xr:uid="{0FFDFB48-73B9-4390-8E9B-CBC415C6460B}"/>
-    <hyperlink ref="C3" r:id="rId23" display="https://alfred.stlouisfed.org/source?soid=1" xr:uid="{E769D4A0-B98E-4F3C-9318-44F1859D0ABD}"/>
-    <hyperlink ref="C5:C6" r:id="rId24" display="https://alfred.stlouisfed.org/source?soid=1" xr:uid="{F977D85F-8345-4F77-B44A-91EC66CB80C4}"/>
-    <hyperlink ref="F4" r:id="rId25" display="https://alfred.stlouisfed.org/series?seid=IPMAN" xr:uid="{A57AC339-AD90-4F2C-99E1-B7D2DB6C28C3}"/>
-    <hyperlink ref="D4" r:id="rId26" display="https://alfred.stlouisfed.org/release?rid=13&amp;soid=1" xr:uid="{11AD49E7-3FE3-4E7B-BEE4-EBCD8B75410F}"/>
-    <hyperlink ref="C4" r:id="rId27" display="https://alfred.stlouisfed.org/source?soid=1" xr:uid="{052B7ECD-D891-46CB-9526-101219C375FE}"/>
-    <hyperlink ref="F21" r:id="rId28" display="https://alfred.stlouisfed.org/series?seid=BUSINV" xr:uid="{B96A4CAE-F4E8-41B8-A2EE-3329F752DBAB}"/>
-    <hyperlink ref="F22" r:id="rId29" display="https://alfred.stlouisfed.org/series?seid=ISRATIO" xr:uid="{26B9700B-2F26-49EA-9160-56EF4C6E9651}"/>
-    <hyperlink ref="C21" r:id="rId30" display="https://alfred.stlouisfed.org/source?soid=19" xr:uid="{723347E2-4EE4-4C61-88B8-2007AC8967DC}"/>
-    <hyperlink ref="C22" r:id="rId31" display="https://alfred.stlouisfed.org/source?soid=19" xr:uid="{8412B176-DD6D-4612-B0D0-263F55216A9D}"/>
-    <hyperlink ref="C23" r:id="rId32" display="https://alfred.stlouisfed.org/source?soid=19" xr:uid="{50A23255-43C4-415D-8986-4EEC744E2265}"/>
-    <hyperlink ref="C24" r:id="rId33" display="https://alfred.stlouisfed.org/source?soid=19" xr:uid="{4B9885B2-B779-4A15-8A30-5B6A0558E123}"/>
-    <hyperlink ref="D21" r:id="rId34" display="https://alfred.stlouisfed.org/release?rid=25&amp;soid=19" xr:uid="{77D12111-D75D-47A5-8D1A-EEBFB4AC6B3E}"/>
-    <hyperlink ref="D22" r:id="rId35" display="https://alfred.stlouisfed.org/release?rid=25&amp;soid=19" xr:uid="{CFBDCBEF-7050-4E3B-94D9-8CA7E6A29D95}"/>
-    <hyperlink ref="D23" r:id="rId36" display="https://alfred.stlouisfed.org/release?rid=25&amp;soid=19" xr:uid="{0BB86F1C-F341-48DD-B87F-7F483605C446}"/>
-    <hyperlink ref="D24" r:id="rId37" display="https://alfred.stlouisfed.org/release?rid=25&amp;soid=19" xr:uid="{31DB8AC9-6AE2-40BE-B0F9-C1C6FD5DD8A7}"/>
-    <hyperlink ref="F23" r:id="rId38" display="https://alfred.stlouisfed.org/series?seid=TOTBUSSMSA" xr:uid="{9D2AA87B-4325-4B55-8C1B-C95E8A2DACA5}"/>
-    <hyperlink ref="F24" r:id="rId39" display="https://alfred.stlouisfed.org/series?seid=RETAILMPCSMSA" xr:uid="{88FE6C95-CDA0-41F3-9DC7-0A50AD01402E}"/>
-    <hyperlink ref="F17" r:id="rId40" display="https://alfred.stlouisfed.org/series?seid=CPILFESL" xr:uid="{68204807-BCD5-48F9-A605-159222B52A70}"/>
-    <hyperlink ref="C16" r:id="rId41" display="https://alfred.stlouisfed.org/source?soid=22" xr:uid="{762E9F43-EBCE-4C54-876E-3C23E5DA9CBC}"/>
-    <hyperlink ref="C17" r:id="rId42" display="https://alfred.stlouisfed.org/source?soid=22" xr:uid="{395263CE-968C-42E7-A1EE-FB19B043893E}"/>
-    <hyperlink ref="C19" r:id="rId43" display="https://alfred.stlouisfed.org/source?soid=22" xr:uid="{BEFF2504-8E17-49D4-8B11-08F89147CE63}"/>
-    <hyperlink ref="D16" r:id="rId44" display="https://alfred.stlouisfed.org/release?rid=10&amp;soid=22" xr:uid="{136E4EFD-0DA5-4BC5-83E4-6B642F11E69B}"/>
-    <hyperlink ref="D17" r:id="rId45" display="https://alfred.stlouisfed.org/release?rid=10&amp;soid=22" xr:uid="{BF3A2403-DD2C-4F54-90EE-44B400B7A31F}"/>
-    <hyperlink ref="C10" r:id="rId46" display="https://alfred.stlouisfed.org/source?soid=22" xr:uid="{40A47305-10BD-48DF-92CF-AB49F83067EC}"/>
-    <hyperlink ref="C11" r:id="rId47" display="https://alfred.stlouisfed.org/source?soid=22" xr:uid="{5069AE26-790D-4A7A-B37E-70B055B7EC62}"/>
-    <hyperlink ref="F12" r:id="rId48" display="https://alfred.stlouisfed.org/series?seid=CIVPART" xr:uid="{141B5178-869A-4A72-ABFC-0D293B5843C0}"/>
-    <hyperlink ref="C12" r:id="rId49" display="https://alfred.stlouisfed.org/source?soid=22" xr:uid="{041EE978-0E0D-481C-866B-AED0F00E80DB}"/>
-    <hyperlink ref="D10" r:id="rId50" display="https://alfred.stlouisfed.org/release?rid=50&amp;soid=22" xr:uid="{522138DC-72AA-42A4-B030-A10B245D812B}"/>
-    <hyperlink ref="D11" r:id="rId51" display="https://alfred.stlouisfed.org/release?rid=50&amp;soid=22" xr:uid="{9C7FCDFF-E5EC-44FF-BC8B-198FA62735D1}"/>
-    <hyperlink ref="D12" r:id="rId52" display="https://alfred.stlouisfed.org/release?rid=50&amp;soid=22" xr:uid="{41A1885D-858C-482F-92A2-08B4803D8B02}"/>
-    <hyperlink ref="F14" r:id="rId53" display="https://alfred.stlouisfed.org/series?seid=AWHI" xr:uid="{0EBCB24F-A742-4FE6-83DC-C527A3905CC6}"/>
-    <hyperlink ref="C13" r:id="rId54" display="https://alfred.stlouisfed.org/source?soid=22" xr:uid="{19EDDF4C-F5B6-4BB5-A355-E4256E70AA02}"/>
-    <hyperlink ref="C14" r:id="rId55" display="https://alfred.stlouisfed.org/source?soid=22" xr:uid="{56DD3DE9-4938-4D62-9A6B-0E4BB53BD94F}"/>
-    <hyperlink ref="D13" r:id="rId56" display="https://alfred.stlouisfed.org/release?rid=50&amp;soid=22" xr:uid="{DAD9CE68-FAA3-4400-930F-01EE19CAF39A}"/>
-    <hyperlink ref="D14" r:id="rId57" display="https://alfred.stlouisfed.org/release?rid=50&amp;soid=22" xr:uid="{5CAE5CFF-B6D8-4F43-8D2A-A44711B2FBD3}"/>
-    <hyperlink ref="F8" r:id="rId58" display="https://alfred.stlouisfed.org/release?rid=180&amp;soid=50" xr:uid="{31577A6D-297B-4D83-A262-7A076EEF9A2C}"/>
-    <hyperlink ref="D26" r:id="rId59" display="https://alfred.stlouisfed.org/release?rid=27&amp;soid=19" xr:uid="{CA0F503E-1B9A-4C07-80EE-CCC9AAADD285}"/>
-    <hyperlink ref="D27" r:id="rId60" display="https://alfred.stlouisfed.org/release?rid=27&amp;soid=19" xr:uid="{B659D98A-646F-4A03-BD44-05710F4591FE}"/>
-    <hyperlink ref="D19" r:id="rId61" display="https://alfred.stlouisfed.org/release?rid=46&amp;soid=22" xr:uid="{A45497F4-0116-43BB-9479-F7C512DB773C}"/>
-    <hyperlink ref="D29" r:id="rId62" display="https://alfred.stlouisfed.org/release?rid=54&amp;soid=18" xr:uid="{18F84F8E-E443-4F25-A145-56AD896BB0AD}"/>
-    <hyperlink ref="C29" r:id="rId63" display="https://alfred.stlouisfed.org/source?soid=18" xr:uid="{0BA48CB4-F117-48FE-B7B5-6C4236DA1222}"/>
-    <hyperlink ref="D30" r:id="rId64" display="https://alfred.stlouisfed.org/release?rid=54&amp;soid=18" xr:uid="{AC70CCFB-B716-40EF-A8AA-13BC9A596066}"/>
-    <hyperlink ref="C30" r:id="rId65" display="https://alfred.stlouisfed.org/source?soid=18" xr:uid="{060CC620-B06D-482E-9409-DEF34D48BEDC}"/>
-    <hyperlink ref="C8" r:id="rId66" display="https://alfred.stlouisfed.org/source?soid=50" xr:uid="{FCA9C347-3497-426A-9283-6CA02B9856AD}"/>
-    <hyperlink ref="D8" r:id="rId67" display="https://alfred.stlouisfed.org/release?rid=180&amp;soid=50" xr:uid="{29E939F3-B675-44A9-98C5-EB6C5C975295}"/>
-    <hyperlink ref="D51" r:id="rId68" display="https://alfred.stlouisfed.org/release?rid=17" xr:uid="{4FFC21B4-D425-4735-8BB8-A4F531D48D79}"/>
-    <hyperlink ref="C51" r:id="rId69" display="https://alfred.stlouisfed.org/source?soid=1" xr:uid="{BAC3B35D-3944-4A23-837E-3DB5AB82EF76}"/>
-    <hyperlink ref="C56" r:id="rId70" display="https://alfred.stlouisfed.org/source?soid=47" xr:uid="{00CA43C8-1609-4305-92A1-9DAE79050359}"/>
-    <hyperlink ref="C58" r:id="rId71" display="https://alfred.stlouisfed.org/source?soid=53" xr:uid="{36166068-A483-480F-956A-CE644C653BD5}"/>
-    <hyperlink ref="D56" r:id="rId72" display="https://alfred.stlouisfed.org/release?rid=200" xr:uid="{D46311B5-F080-4E2B-B765-3B489DFB86A3}"/>
-    <hyperlink ref="D58" r:id="rId73" display="https://alfred.stlouisfed.org/release?rid=212&amp;soid=53" xr:uid="{38522E6F-C23B-4611-9CF3-9C353047F8A7}"/>
-    <hyperlink ref="D48" r:id="rId74" display="https://alfred.stlouisfed.org/release?rid=427" xr:uid="{59A8062D-91E4-4A9D-AEA1-799744C5BDF4}"/>
-    <hyperlink ref="F49" r:id="rId75" display="https://alfred.stlouisfed.org/series?seid=DBAA" xr:uid="{5231BE62-FF8F-4B0D-B473-DABD572E938B}"/>
-    <hyperlink ref="C48" r:id="rId76" display="https://alfred.stlouisfed.org/source?soid=129" xr:uid="{2E0D5B40-F621-495B-A6DB-2600394ED0BD}"/>
-    <hyperlink ref="D49" r:id="rId77" display="https://alfred.stlouisfed.org/release?rid=427" xr:uid="{08CC6816-EE5F-4B9D-82E2-FB81C0E4C096}"/>
-    <hyperlink ref="C49" r:id="rId78" display="https://alfred.stlouisfed.org/source?soid=129" xr:uid="{60579385-F7F6-47AE-9987-9D0ECD5316F0}"/>
-    <hyperlink ref="D43" r:id="rId79" display="https://alfred.stlouisfed.org/release?rid=18" xr:uid="{77318C6F-0AA8-40EF-A153-50AC8F3299E0}"/>
-    <hyperlink ref="D44:D46" r:id="rId80" display="https://alfred.stlouisfed.org/release?rid=18" xr:uid="{EEF2DFDB-83DB-4F90-9417-68419E233883}"/>
-    <hyperlink ref="C43" r:id="rId81" display="https://alfred.stlouisfed.org/source?soid=1" xr:uid="{01B362BE-17B8-4831-8C54-0AE21840BFC9}"/>
-    <hyperlink ref="C44:C46" r:id="rId82" display="https://alfred.stlouisfed.org/source?soid=1" xr:uid="{9A665D28-6AB9-43E3-9E46-5832AC3A30EB}"/>
-    <hyperlink ref="F53" r:id="rId83" display="https://alfred.stlouisfed.org/series?seid=NASDAQCOM" xr:uid="{0EC92C4A-6E1C-4F02-9117-811255F35925}"/>
-    <hyperlink ref="C53" r:id="rId84" display="https://alfred.stlouisfed.org/source?soid=97" xr:uid="{502B8C45-3A02-4CC7-B080-0EE43F146225}"/>
-    <hyperlink ref="D53" r:id="rId85" display="https://alfred.stlouisfed.org/release?rid=328" xr:uid="{221E9211-BDC6-4898-AD95-9B4D8548C8AD}"/>
-    <hyperlink ref="F55" r:id="rId86" display="https://alfred.stlouisfed.org/series?seid=WILL5000INDFC" xr:uid="{54D49B01-2C38-4FE5-BB3A-5DC8D85491FA}"/>
+    <hyperlink ref="F8" r:id="rId4" display="https://alfred.stlouisfed.org/series?seid=UNRATE" xr:uid="{A4545E9D-F4A4-4050-B867-8228DB306B54}"/>
+    <hyperlink ref="F27" r:id="rId5" display="https://alfred.stlouisfed.org/series?seid=PCEC96" xr:uid="{2E4D66D5-F644-48BD-AFD5-F0FDC1B81895}"/>
+    <hyperlink ref="F15" r:id="rId6" display="https://alfred.stlouisfed.org/series?seid=CPIAUCSL" xr:uid="{08E046C6-7718-4B83-87C6-95F709D86704}"/>
+    <hyperlink ref="F17" r:id="rId7" display="https://alfred.stlouisfed.org/series?seid=PPIACO" xr:uid="{30D35E82-98BE-47C2-8671-FA77D859AA93}"/>
+    <hyperlink ref="F24" r:id="rId8" display="https://alfred.stlouisfed.org/series?seid=HOUST" xr:uid="{325BDEDD-5F69-458D-873C-B3F3887C54FB}"/>
+    <hyperlink ref="F25" r:id="rId9" display="https://alfred.stlouisfed.org/series?seid=PERMIT" xr:uid="{C9CDFAD2-F560-4EA8-8171-D799A4C16045}"/>
+    <hyperlink ref="F50" r:id="rId10" display="https://alfred.stlouisfed.org/series?seid=DTWEXM" xr:uid="{11177C43-0E89-4C34-84C8-AA92C7DBCA40}"/>
+    <hyperlink ref="F52" r:id="rId11" display="https://alfred.stlouisfed.org/series?seid=VIXCLS" xr:uid="{1120FD1F-70DF-403B-9AB2-FAB2BE94C900}"/>
+    <hyperlink ref="F43" r:id="rId12" display="https://alfred.stlouisfed.org/series?seid=DGS10" xr:uid="{A836080F-B477-46F6-A470-E852510D2ADE}"/>
+    <hyperlink ref="F42" r:id="rId13" display="https://alfred.stlouisfed.org/series?seid=DTB3" xr:uid="{D18A8152-92EC-4F5F-8F2D-DD70314E64B7}"/>
+    <hyperlink ref="F37" r:id="rId14" display="https://alfred.stlouisfed.org/series?seid=TOTALSL" xr:uid="{97103A44-2040-4B1E-B2AA-870B7C9BDA3B}"/>
+    <hyperlink ref="F38" r:id="rId15" display="https://alfred.stlouisfed.org/series?seid=REVOLSL" xr:uid="{01734E95-329B-440F-9562-92AA1A30652C}"/>
+    <hyperlink ref="F39" r:id="rId16" display="https://alfred.stlouisfed.org/series?seid=NONREVSL" xr:uid="{34445C73-0ED3-4772-BA51-DABDDE08E613}"/>
+    <hyperlink ref="F41" r:id="rId17" display="https://alfred.stlouisfed.org/series?seid=DFF" xr:uid="{111E22EF-A095-47D5-901E-B0B29C45001D}"/>
+    <hyperlink ref="F9" r:id="rId18" display="https://alfred.stlouisfed.org/series?seid=PAYEMS" xr:uid="{3590F40F-1832-482B-A156-DD3057E4E2B1}"/>
+    <hyperlink ref="F53" r:id="rId19" display="https://alfred.stlouisfed.org/series?seid=DCOILWTICO" xr:uid="{08A9E151-C9C2-4C84-9371-155AEBCEE474}"/>
+    <hyperlink ref="D3" r:id="rId20" display="https://alfred.stlouisfed.org/release?rid=13&amp;soid=1" xr:uid="{B50F50A7-3F57-42E1-994D-FD311398DB30}"/>
+    <hyperlink ref="D5:D6" r:id="rId21" display="https://alfred.stlouisfed.org/release?rid=13&amp;soid=1" xr:uid="{0FFDFB48-73B9-4390-8E9B-CBC415C6460B}"/>
+    <hyperlink ref="C3" r:id="rId22" display="https://alfred.stlouisfed.org/source?soid=1" xr:uid="{E769D4A0-B98E-4F3C-9318-44F1859D0ABD}"/>
+    <hyperlink ref="C5:C6" r:id="rId23" display="https://alfred.stlouisfed.org/source?soid=1" xr:uid="{F977D85F-8345-4F77-B44A-91EC66CB80C4}"/>
+    <hyperlink ref="F4" r:id="rId24" display="https://alfred.stlouisfed.org/series?seid=IPMAN" xr:uid="{A57AC339-AD90-4F2C-99E1-B7D2DB6C28C3}"/>
+    <hyperlink ref="D4" r:id="rId25" display="https://alfred.stlouisfed.org/release?rid=13&amp;soid=1" xr:uid="{11AD49E7-3FE3-4E7B-BEE4-EBCD8B75410F}"/>
+    <hyperlink ref="C4" r:id="rId26" display="https://alfred.stlouisfed.org/source?soid=1" xr:uid="{052B7ECD-D891-46CB-9526-101219C375FE}"/>
+    <hyperlink ref="F19" r:id="rId27" display="https://alfred.stlouisfed.org/series?seid=BUSINV" xr:uid="{B96A4CAE-F4E8-41B8-A2EE-3329F752DBAB}"/>
+    <hyperlink ref="F20" r:id="rId28" display="https://alfred.stlouisfed.org/series?seid=ISRATIO" xr:uid="{26B9700B-2F26-49EA-9160-56EF4C6E9651}"/>
+    <hyperlink ref="C19" r:id="rId29" display="https://alfred.stlouisfed.org/source?soid=19" xr:uid="{723347E2-4EE4-4C61-88B8-2007AC8967DC}"/>
+    <hyperlink ref="C20" r:id="rId30" display="https://alfred.stlouisfed.org/source?soid=19" xr:uid="{8412B176-DD6D-4612-B0D0-263F55216A9D}"/>
+    <hyperlink ref="C21" r:id="rId31" display="https://alfred.stlouisfed.org/source?soid=19" xr:uid="{50A23255-43C4-415D-8986-4EEC744E2265}"/>
+    <hyperlink ref="C22" r:id="rId32" display="https://alfred.stlouisfed.org/source?soid=19" xr:uid="{4B9885B2-B779-4A15-8A30-5B6A0558E123}"/>
+    <hyperlink ref="D19" r:id="rId33" display="https://alfred.stlouisfed.org/release?rid=25&amp;soid=19" xr:uid="{77D12111-D75D-47A5-8D1A-EEBFB4AC6B3E}"/>
+    <hyperlink ref="D20" r:id="rId34" display="https://alfred.stlouisfed.org/release?rid=25&amp;soid=19" xr:uid="{CFBDCBEF-7050-4E3B-94D9-8CA7E6A29D95}"/>
+    <hyperlink ref="D21" r:id="rId35" display="https://alfred.stlouisfed.org/release?rid=25&amp;soid=19" xr:uid="{0BB86F1C-F341-48DD-B87F-7F483605C446}"/>
+    <hyperlink ref="D22" r:id="rId36" display="https://alfred.stlouisfed.org/release?rid=25&amp;soid=19" xr:uid="{31DB8AC9-6AE2-40BE-B0F9-C1C6FD5DD8A7}"/>
+    <hyperlink ref="F21" r:id="rId37" display="https://alfred.stlouisfed.org/series?seid=TOTBUSSMSA" xr:uid="{9D2AA87B-4325-4B55-8C1B-C95E8A2DACA5}"/>
+    <hyperlink ref="F22" r:id="rId38" display="https://alfred.stlouisfed.org/series?seid=RETAILMPCSMSA" xr:uid="{88FE6C95-CDA0-41F3-9DC7-0A50AD01402E}"/>
+    <hyperlink ref="F16" r:id="rId39" display="https://alfred.stlouisfed.org/series?seid=CPILFESL" xr:uid="{68204807-BCD5-48F9-A605-159222B52A70}"/>
+    <hyperlink ref="C15" r:id="rId40" display="https://alfred.stlouisfed.org/source?soid=22" xr:uid="{762E9F43-EBCE-4C54-876E-3C23E5DA9CBC}"/>
+    <hyperlink ref="C16" r:id="rId41" display="https://alfred.stlouisfed.org/source?soid=22" xr:uid="{395263CE-968C-42E7-A1EE-FB19B043893E}"/>
+    <hyperlink ref="C17" r:id="rId42" display="https://alfred.stlouisfed.org/source?soid=22" xr:uid="{BEFF2504-8E17-49D4-8B11-08F89147CE63}"/>
+    <hyperlink ref="D15" r:id="rId43" display="https://alfred.stlouisfed.org/release?rid=10&amp;soid=22" xr:uid="{136E4EFD-0DA5-4BC5-83E4-6B642F11E69B}"/>
+    <hyperlink ref="D16" r:id="rId44" display="https://alfred.stlouisfed.org/release?rid=10&amp;soid=22" xr:uid="{BF3A2403-DD2C-4F54-90EE-44B400B7A31F}"/>
+    <hyperlink ref="C8" r:id="rId45" display="https://alfred.stlouisfed.org/source?soid=22" xr:uid="{40A47305-10BD-48DF-92CF-AB49F83067EC}"/>
+    <hyperlink ref="C9" r:id="rId46" display="https://alfred.stlouisfed.org/source?soid=22" xr:uid="{5069AE26-790D-4A7A-B37E-70B055B7EC62}"/>
+    <hyperlink ref="F10" r:id="rId47" display="https://alfred.stlouisfed.org/series?seid=CIVPART" xr:uid="{141B5178-869A-4A72-ABFC-0D293B5843C0}"/>
+    <hyperlink ref="C10" r:id="rId48" display="https://alfred.stlouisfed.org/source?soid=22" xr:uid="{041EE978-0E0D-481C-866B-AED0F00E80DB}"/>
+    <hyperlink ref="D8" r:id="rId49" display="https://alfred.stlouisfed.org/release?rid=50&amp;soid=22" xr:uid="{522138DC-72AA-42A4-B030-A10B245D812B}"/>
+    <hyperlink ref="D9" r:id="rId50" display="https://alfred.stlouisfed.org/release?rid=50&amp;soid=22" xr:uid="{9C7FCDFF-E5EC-44FF-BC8B-198FA62735D1}"/>
+    <hyperlink ref="D10" r:id="rId51" display="https://alfred.stlouisfed.org/release?rid=50&amp;soid=22" xr:uid="{41A1885D-858C-482F-92A2-08B4803D8B02}"/>
+    <hyperlink ref="C11" r:id="rId52" display="https://alfred.stlouisfed.org/source?soid=22" xr:uid="{19EDDF4C-F5B6-4BB5-A355-E4256E70AA02}"/>
+    <hyperlink ref="C12" r:id="rId53" display="https://alfred.stlouisfed.org/source?soid=22" xr:uid="{56DD3DE9-4938-4D62-9A6B-0E4BB53BD94F}"/>
+    <hyperlink ref="D11" r:id="rId54" display="https://alfred.stlouisfed.org/release?rid=50&amp;soid=22" xr:uid="{DAD9CE68-FAA3-4400-930F-01EE19CAF39A}"/>
+    <hyperlink ref="D12" r:id="rId55" display="https://alfred.stlouisfed.org/release?rid=50&amp;soid=22" xr:uid="{5CAE5CFF-B6D8-4F43-8D2A-A44711B2FBD3}"/>
+    <hyperlink ref="D24" r:id="rId56" display="https://alfred.stlouisfed.org/release?rid=27&amp;soid=19" xr:uid="{CA0F503E-1B9A-4C07-80EE-CCC9AAADD285}"/>
+    <hyperlink ref="D25" r:id="rId57" display="https://alfred.stlouisfed.org/release?rid=27&amp;soid=19" xr:uid="{B659D98A-646F-4A03-BD44-05710F4591FE}"/>
+    <hyperlink ref="D17" r:id="rId58" display="https://alfred.stlouisfed.org/release?rid=46&amp;soid=22" xr:uid="{A45497F4-0116-43BB-9479-F7C512DB773C}"/>
+    <hyperlink ref="D27" r:id="rId59" display="https://alfred.stlouisfed.org/release?rid=54&amp;soid=18" xr:uid="{18F84F8E-E443-4F25-A145-56AD896BB0AD}"/>
+    <hyperlink ref="C27" r:id="rId60" display="https://alfred.stlouisfed.org/source?soid=18" xr:uid="{0BA48CB4-F117-48FE-B7B5-6C4236DA1222}"/>
+    <hyperlink ref="D28" r:id="rId61" display="https://alfred.stlouisfed.org/release?rid=54&amp;soid=18" xr:uid="{AC70CCFB-B716-40EF-A8AA-13BC9A596066}"/>
+    <hyperlink ref="C28" r:id="rId62" display="https://alfred.stlouisfed.org/source?soid=18" xr:uid="{060CC620-B06D-482E-9409-DEF34D48BEDC}"/>
+    <hyperlink ref="D50" r:id="rId63" display="https://alfred.stlouisfed.org/release?rid=17" xr:uid="{4FFC21B4-D425-4735-8BB8-A4F531D48D79}"/>
+    <hyperlink ref="C50" r:id="rId64" display="https://alfred.stlouisfed.org/source?soid=1" xr:uid="{BAC3B35D-3944-4A23-837E-3DB5AB82EF76}"/>
+    <hyperlink ref="C52" r:id="rId65" display="https://alfred.stlouisfed.org/source?soid=47" xr:uid="{00CA43C8-1609-4305-92A1-9DAE79050359}"/>
+    <hyperlink ref="C53" r:id="rId66" display="https://alfred.stlouisfed.org/source?soid=53" xr:uid="{36166068-A483-480F-956A-CE644C653BD5}"/>
+    <hyperlink ref="D52" r:id="rId67" display="https://alfred.stlouisfed.org/release?rid=200" xr:uid="{D46311B5-F080-4E2B-B765-3B489DFB86A3}"/>
+    <hyperlink ref="D53" r:id="rId68" display="https://alfred.stlouisfed.org/release?rid=212&amp;soid=53" xr:uid="{38522E6F-C23B-4611-9CF3-9C353047F8A7}"/>
+    <hyperlink ref="F44" r:id="rId69" display="https://alfred.stlouisfed.org/series?seid=DBAA" xr:uid="{5231BE62-FF8F-4B0D-B473-DABD572E938B}"/>
+    <hyperlink ref="D44" r:id="rId70" display="https://alfred.stlouisfed.org/release?rid=427" xr:uid="{08CC6816-EE5F-4B9D-82E2-FB81C0E4C096}"/>
+    <hyperlink ref="C44" r:id="rId71" display="https://alfred.stlouisfed.org/source?soid=129" xr:uid="{60579385-F7F6-47AE-9987-9D0ECD5316F0}"/>
+    <hyperlink ref="D41" r:id="rId72" display="https://alfred.stlouisfed.org/release?rid=18" xr:uid="{77318C6F-0AA8-40EF-A153-50AC8F3299E0}"/>
+    <hyperlink ref="D42:D43" r:id="rId73" display="https://alfred.stlouisfed.org/release?rid=18" xr:uid="{EEF2DFDB-83DB-4F90-9417-68419E233883}"/>
+    <hyperlink ref="C41" r:id="rId74" display="https://alfred.stlouisfed.org/source?soid=1" xr:uid="{01B362BE-17B8-4831-8C54-0AE21840BFC9}"/>
+    <hyperlink ref="C42:C43" r:id="rId75" display="https://alfred.stlouisfed.org/source?soid=1" xr:uid="{9A665D28-6AB9-43E3-9E46-5832AC3A30EB}"/>
+    <hyperlink ref="F11" r:id="rId76" display="https://alfred.stlouisfed.org/series?seid=AWHI" xr:uid="{1B2C5E7C-D457-42C4-B3D5-8271CED1B362}"/>
+    <hyperlink ref="F13" r:id="rId77" display="https://alfred.stlouisfed.org/series?seid=AHETPI" xr:uid="{2508188E-3DAF-45A3-8B98-BBC1A403ECD3}"/>
+    <hyperlink ref="F12" r:id="rId78" display="https://alfred.stlouisfed.org/series?seid=AWHMAN" xr:uid="{1243A490-5DA8-4EA1-AE89-3CBAA6B3147E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId87"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId79"/>
 </worksheet>
 </file>
--- a/_data.xlsx
+++ b/_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C203FC23-C085-4A41-B5A6-F8CAF75F2881}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9F2E570C-2A3C-4E06-834D-77A21D95365F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="138">
   <si>
     <t>Industrial Production Index</t>
   </si>
@@ -407,13 +407,40 @@
   </si>
   <si>
     <t>10Y - 3M</t>
+  </si>
+  <si>
+    <t>Real personal income excluding current transfer receipts</t>
+  </si>
+  <si>
+    <t>W875RX1</t>
+  </si>
+  <si>
+    <t>Advance Real Retail and Food Services Sales</t>
+  </si>
+  <si>
+    <t>RRSFS</t>
+  </si>
+  <si>
+    <t>Real Manufacturing and Trade Industries Sales</t>
+  </si>
+  <si>
+    <t>CMRMTSPL</t>
+  </si>
+  <si>
+    <t>RSALES</t>
+  </si>
+  <si>
+    <t>Real Retail Sales (DISCONTINUED)</t>
+  </si>
+  <si>
+    <t>spliced CMRMT and HMRMT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -433,6 +460,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -459,7 +492,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -468,6 +501,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -749,10 +783,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98DEB85B-EA0C-4688-9031-BAF313B96D41}">
-  <dimension ref="A1:N58"/>
+  <dimension ref="A1:N66"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+      <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2010,6 +2044,41 @@
       <c r="E58" s="4"/>
       <c r="G58"/>
       <c r="K58" s="4"/>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E61" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E63" t="s">
+        <v>132</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E64" t="s">
+        <v>135</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="66" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E66" t="s">
+        <v>134</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>137</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2091,8 +2160,12 @@
     <hyperlink ref="F11" r:id="rId76" display="https://alfred.stlouisfed.org/series?seid=AWHI" xr:uid="{1B2C5E7C-D457-42C4-B3D5-8271CED1B362}"/>
     <hyperlink ref="F13" r:id="rId77" display="https://alfred.stlouisfed.org/series?seid=AHETPI" xr:uid="{2508188E-3DAF-45A3-8B98-BBC1A403ECD3}"/>
     <hyperlink ref="F12" r:id="rId78" display="https://alfred.stlouisfed.org/series?seid=AWHMAN" xr:uid="{1243A490-5DA8-4EA1-AE89-3CBAA6B3147E}"/>
+    <hyperlink ref="F61" r:id="rId79" display="https://alfred.stlouisfed.org/series?seid=W875RX1" xr:uid="{E7BF90B5-E5D3-41C0-B2CE-6A7B501A71DD}"/>
+    <hyperlink ref="F63" r:id="rId80" display="https://alfred.stlouisfed.org/series?seid=RRSFS" xr:uid="{EBDED77E-9315-4C5B-8CE7-883F702D6F20}"/>
+    <hyperlink ref="F66" r:id="rId81" display="https://alfred.stlouisfed.org/series?seid=CMRMTSPL" xr:uid="{78FF6629-A5DA-40FA-8927-1E07555CEEB7}"/>
+    <hyperlink ref="F64" r:id="rId82" display="https://alfred.stlouisfed.org/series?seid=RSALES" xr:uid="{ECB60E41-E105-4BAD-8423-807EED3EB553}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId79"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId83"/>
 </worksheet>
 </file>